--- a/analysis/plot/data/num_patches.xlsx
+++ b/analysis/plot/data/num_patches.xlsx
@@ -8,53 +8,73 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WPS云盘\1485244343\WPS企业云盘\上海交通大学\我的企业文档\学习\科研\空转\HERGAST\upload-NC\revision1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD7580D-0855-4478-BB26-5874FB3FFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CF19D-E7DE-475F-8B6F-E8EBD88EAD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="80k" sheetId="3" r:id="rId1"/>
+    <sheet name="360k" sheetId="2" r:id="rId2"/>
+    <sheet name="640k" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Number of patches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Number of spots per patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Memory consumption (GB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPU memory consumption (GB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Time consumption (min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Performance (ARI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -67,9 +87,15 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,12 +120,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -380,7 +412,7 @@
     <col min="2" max="2" width="33.90625" customWidth="1"/>
     <col min="3" max="3" width="35.26953125" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
     <col min="6" max="6" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,6 +438,291 @@
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>784</v>
+      </c>
+      <c r="B2" s="1">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>111.86</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E2" s="1">
+        <v>65.19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>400</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>78.41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1">
+        <v>409</v>
+      </c>
+      <c r="C4" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>801</v>
+      </c>
+      <c r="C5" s="1">
+        <v>83.18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1634</v>
+      </c>
+      <c r="C6" s="1">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3204</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80.16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79.73</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8899</v>
+      </c>
+      <c r="C9" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C10" s="1">
+        <v>79.45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27.51</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13348</v>
+      </c>
+      <c r="C11" s="1">
+        <v>79.03</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20022</v>
+      </c>
+      <c r="C12" s="1">
+        <v>78.91</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41.09</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26696</v>
+      </c>
+      <c r="C13" s="1">
+        <v>78.94</v>
+      </c>
+      <c r="D13" s="1">
+        <v>54.78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.753</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>3600</v>
       </c>
       <c r="B2" s="1">
@@ -665,8 +982,273 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B2" s="1">
+        <v>400</v>
+      </c>
+      <c r="C2" s="1">
+        <v>505.96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E2" s="1">
+        <v>306.95</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>784</v>
+      </c>
+      <c r="B3" s="1">
+        <v>816</v>
+      </c>
+      <c r="C3" s="1">
+        <v>475.36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="E3" s="1">
+        <v>214.33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>400</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C4" s="1">
+        <v>436.51</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="E4" s="1">
+        <v>152.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>196</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3265</v>
+      </c>
+      <c r="C5" s="1">
+        <v>401.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.84</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88.54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>357.98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27.87</v>
+      </c>
+      <c r="E6" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>326.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>34.25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12800</v>
+      </c>
+      <c r="C8" s="1">
+        <v>314.25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38.79</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32.78</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>311.47000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>46.82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>31.33</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18286</v>
+      </c>
+      <c r="C10" s="1">
+        <v>310.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31.74</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21333</v>
+      </c>
+      <c r="C11" s="1">
+        <v>309.61</v>
+      </c>
+      <c r="D11" s="1">
+        <v>56.28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30.55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>309.43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>63.87</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30.01</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>